--- a/output.xlsx
+++ b/output.xlsx
@@ -14,39 +14,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
-    <t>guid</t>
+    <t>任务项</t>
   </si>
   <si>
-    <t>type</t>
+    <t>创建人</t>
   </si>
   <si>
-    <t>single_select_value</t>
+    <t>创建时间</t>
   </si>
   <si>
-    <t>name</t>
+    <t>流程/表单相关</t>
   </si>
   <si>
-    <t>序号</t>
-  </si>
-  <si>
-    <t>5793a815-8b3a-4ea8-84f9-b020f4de589f</t>
-  </si>
-  <si>
-    <t>single_select</t>
-  </si>
-  <si>
-    <t>e775d741-71ec-4f6b-a268-e31a621db8b6</t>
-  </si>
-  <si>
-    <t>优先级</t>
+    <t>ou_bcb64a0f17d584006a8dfb31746e4063</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -99,11 +90,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -398,20 +390,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="2" max="2" width="15.7109375" customWidth="1"/>
-    <col min="3" max="3" width="38.7109375" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" customWidth="1"/>
-    <col min="5" max="5" width="38.7109375" customWidth="1"/>
+    <col min="1" max="1" width="9.7109375" customWidth="1"/>
+    <col min="2" max="2" width="37.7109375" customWidth="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -421,28 +411,16 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
+      <c r="C2" s="2">
+        <v>45364.71504844908</v>
       </c>
     </row>
   </sheetData>
